--- a/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
@@ -451,239 +451,319 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9307</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>260112</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>景顺长城能源基建混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>63.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>9.27</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8111</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城价值边际灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>63.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008850</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>64.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005392</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009911</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004135</t>
+          <t>000979</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信量化成长混合</t>
+          <t>景顺长城沪港深精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>24.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城沪港深精选股票</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.92</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008060</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>77.74</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0525</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008850</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>77.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8609</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -856,15 +986,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>60.41</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>7.76</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>005392</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4783</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001050</t>
+          <t>009911</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富成长多因子量化策略股票</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005392</t>
+          <t>003956</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+          <t>南方现代教育股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3340</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009911</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>69.93</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007994</t>
+          <t>001050</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强A</t>
+          <t>汇添富成长多因子量化策略股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007995</t>
+          <t>007994</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强C</t>
+          <t>华夏中证500指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>91.73</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003956</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方现代教育股票</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>007995</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>华夏中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>004135</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
+          <t>申万菱信量化成长混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1192,15 +1442,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>91.77</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2.26</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5163</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8845</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6504</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1828,4 +1829,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1895</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7875</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2379,4 +2380,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.19</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.94</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2516,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.45</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9706</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2467,13 +2554,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9605</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9319</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3500</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3381</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2863,7 +2864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2874,17 +2875,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2894,14 +2915,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.63</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2910,14 +2953,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.19</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2926,14 +2991,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.94</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1507</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2942,14 +3029,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.45</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9519</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2958,13 +3067,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9240</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3376,7 +3377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,17 +3388,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3407,14 +3428,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.52</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3423,14 +3466,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.63</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3439,14 +3504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.19</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3455,14 +3542,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.94</v>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3471,14 +3580,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.45</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8292</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3487,13 +3618,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4366</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>6.07</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>6.52</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>7.63</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>7.19</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>5.94</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>7.45</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.17</v>
       </c>
     </row>
@@ -600,6 +617,1240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4865</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5976</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +2286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,7 +2798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2021,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2571,7 +3822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2931,7 +4182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3633,7 +4884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601098-中南传媒.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>7.13</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>6.07</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>6.52</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>7.63</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>7.19</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>5.94</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>7.45</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,352 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9307</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8111</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +956,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1755</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011849</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得量化价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>017090</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1850,7 +3119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2286,7 +3555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2798,7 +4067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3272,7 +4541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3822,7 +5091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4182,7 +5451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4882,326 +6151,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6401</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1734</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008850</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>64.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9307</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8111</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城价值边际灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>63.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7824</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009911</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4169</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005392</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4137</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>